--- a/va_facility_data_2025-02-20/Salida VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salida%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Salida VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salida%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd66323cdd9904363a75c40021b943777"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R9659363539c74650a0b5b67a6896ff9c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc7dec49d30014b599536fc85edf30359"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Re1a6adaba9044b15a461f4febe2a36c3"/>
   </x:sheets>
 </x:workbook>
 </file>
